--- a/data/source/处理后的新数据.xlsx
+++ b/data/source/处理后的新数据.xlsx
@@ -10,7 +10,7 @@
     <sheet name="处理后的新数据" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">处理后的新数据!$A$1:$F$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">处理后的新数据!$A$1:$G$197</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="509">
   <si>
     <t>操作原因</t>
   </si>
@@ -59,7 +59,7 @@
     <t>长期高位小幅震荡</t>
   </si>
   <si>
-    <t>长期高位小幅震荡+突破压力位+短期小幅急涨</t>
+    <t>长期高位小幅震荡+突破压力位+短期小幅急速上涨</t>
   </si>
   <si>
     <t>长阳包前+上跳</t>
@@ -77,7 +77,7 @@
     <t>长期大幅震荡下跌+中期低位中幅震荡</t>
   </si>
   <si>
-    <t>中期大幅连续下跌+短期小幅连续上涨+短期小幅急跌</t>
+    <t>中期大幅连续下跌+短期小幅连续上涨+短期小幅急速下跌</t>
   </si>
   <si>
     <t>下跳涨回+长阳包前</t>
@@ -86,10 +86,10 @@
     <t>Y2405</t>
   </si>
   <si>
-    <t>短期大幅急涨+短期大幅急跌+短期低位大幅震荡</t>
-  </si>
-  <si>
-    <t>长期大幅震荡下跌+短期中幅急涨</t>
+    <t>短期大幅急速上涨+短期大幅急速下跌+短期低位大幅震荡</t>
+  </si>
+  <si>
+    <t>长期大幅震荡下跌+短期中幅急速上涨</t>
   </si>
   <si>
     <t>上跳+长阳突破</t>
@@ -146,7 +146,7 @@
     <t>NI2406</t>
   </si>
   <si>
-    <t>长期中位小幅震荡+短期中幅急涨</t>
+    <t>长期中位小幅震荡+短期中幅急速上涨</t>
   </si>
   <si>
     <t>长期低位小幅震荡+中期大幅连续上涨</t>
@@ -167,7 +167,7 @@
     <t>长下影+上跳+长阳突破</t>
   </si>
   <si>
-    <t>长期大幅震荡下跌+短期小幅急涨</t>
+    <t>长期大幅震荡下跌+短期小幅急速上涨</t>
   </si>
   <si>
     <t>SF2409</t>
@@ -194,7 +194,7 @@
     <t>BR2407</t>
   </si>
   <si>
-    <t>长期低位中幅震荡+短期中幅急涨</t>
+    <t>长期低位中幅震荡+短期中幅急速上涨</t>
   </si>
   <si>
     <t>长期大幅连续上涨+短期高位小幅震荡+突破回踩</t>
@@ -275,7 +275,7 @@
     <t>J2405</t>
   </si>
   <si>
-    <t>长期高位中幅震荡+短期中幅急跌+短期小幅连续上涨</t>
+    <t>长期高位中幅震荡+短期中幅急速下跌+短期小幅连续上涨</t>
   </si>
   <si>
     <t>中期低位小幅震荡+中期小幅震荡上涨</t>
@@ -350,7 +350,7 @@
     <t>CJ2409</t>
   </si>
   <si>
-    <t>短期大幅急涨+短期大幅连续下跌+短期中幅连续上涨</t>
+    <t>短期大幅急速上涨+短期大幅连续下跌+短期中幅连续上涨</t>
   </si>
   <si>
     <t>长期大幅震荡上涨+短期小幅连续下跌</t>
@@ -368,7 +368,7 @@
     <t>中期大幅连续上涨+短期大幅连续下跌+短期小幅连续上涨</t>
   </si>
   <si>
-    <t>长期中位小幅震荡+短期中幅急涨+短期小幅连续下跌</t>
+    <t>长期中位小幅震荡+短期中幅急速上涨+短期小幅连续下跌</t>
   </si>
   <si>
     <t>长期大幅连续上涨+短期中幅连续下跌+短期小幅连续上涨</t>
@@ -383,7 +383,7 @@
     <t>长期大幅震荡下跌+短期中幅连续上涨+短期小幅连续下跌</t>
   </si>
   <si>
-    <t>长期大幅震荡上涨+短期大幅急跌+短期小幅连续上涨</t>
+    <t>长期大幅震荡上涨+短期大幅急速下跌+短期小幅连续上涨</t>
   </si>
   <si>
     <t>下跳+下跳破+长阴跌破</t>
@@ -395,13 +395,13 @@
     <t>长期低位中幅震荡</t>
   </si>
   <si>
-    <t>短期中幅急涨+短期小幅连续下跌</t>
+    <t>短期中幅急速上涨+短期小幅连续下跌</t>
   </si>
   <si>
     <t>V2409</t>
   </si>
   <si>
-    <t>长期低位小幅震荡+短期中幅急涨+短期小幅急跌</t>
+    <t>长期低位小幅震荡+短期中幅急速上涨+短期小幅急速下跌</t>
   </si>
   <si>
     <t>长期大幅连续上涨+短期小幅连续下跌+短期中位小幅震荡</t>
@@ -416,7 +416,7 @@
     <t>长期中幅震荡下跌+短期低位小幅震荡</t>
   </si>
   <si>
-    <t>中期小幅震荡上涨+短期小幅急跌+短期小幅急涨</t>
+    <t>中期小幅震荡上涨+短期小幅急速下跌+短期小幅急速上涨</t>
   </si>
   <si>
     <t>C2409</t>
@@ -452,7 +452,7 @@
     <t>中期低位小幅震荡+短期中幅连续上涨+短期小幅连续下跌</t>
   </si>
   <si>
-    <t>中期大幅震荡上涨+短期中幅连续下跌+短期小幅急涨</t>
+    <t>中期大幅震荡上涨+短期中幅连续下跌+短期小幅急速上涨</t>
   </si>
   <si>
     <t>长上影+长阴包前</t>
@@ -461,10 +461,10 @@
     <t>FG2409</t>
   </si>
   <si>
-    <t>短期高位中幅震荡+短期中幅急跌</t>
-  </si>
-  <si>
-    <t>中期高位中幅震荡+短期大幅急跌+短期低位小幅震荡</t>
+    <t>短期高位中幅震荡+短期中幅急速下跌</t>
+  </si>
+  <si>
+    <t>中期高位中幅震荡+短期大幅急速下跌+短期低位小幅震荡</t>
   </si>
   <si>
     <t>连续刺不破+下跳+长阴跌破</t>
@@ -473,10 +473,10 @@
     <t>LC2411</t>
   </si>
   <si>
-    <t>短期中幅急跌+短期小幅连续上涨+短期小幅连续下跌</t>
-  </si>
-  <si>
-    <t>中期中幅震荡上涨+中期中幅震荡下跌+短期小幅急涨</t>
+    <t>短期中幅急速下跌+短期小幅连续上涨+短期小幅连续下跌</t>
+  </si>
+  <si>
+    <t>中期中幅震荡上涨+中期中幅震荡下跌+短期小幅急速上涨</t>
   </si>
   <si>
     <t>长上影+连续下跳</t>
@@ -506,7 +506,7 @@
     <t>HC2410</t>
   </si>
   <si>
-    <t>长期中位小幅震荡+短期小幅连续上涨+短期小幅急跌</t>
+    <t>长期中位小幅震荡+短期小幅连续上涨+短期小幅急速下跌</t>
   </si>
   <si>
     <t>长期小幅震荡上涨+中期高位小幅震荡+中期小幅连续下跌</t>
@@ -518,10 +518,10 @@
     <t>L2501</t>
   </si>
   <si>
-    <t>短期大幅急跌+短期中幅急涨+短期中位小幅震荡</t>
-  </si>
-  <si>
-    <t>长期中位中幅震荡+中期大幅连续下跌+短期小幅急涨</t>
+    <t>短期大幅急速下跌+短期中幅急速上涨+短期中位小幅震荡</t>
+  </si>
+  <si>
+    <t>长期中位中幅震荡+中期大幅连续下跌+短期小幅急速上涨</t>
   </si>
   <si>
     <t>FU2411</t>
@@ -539,7 +539,7 @@
     <t>TA2501</t>
   </si>
   <si>
-    <t>长期中幅震荡下跌+短期大幅急涨+短期中幅急跌</t>
+    <t>长期中幅震荡下跌+短期大幅急速上涨+短期中幅急速下跌</t>
   </si>
   <si>
     <t>中期低位小幅震荡+中期大幅连续上涨+中期大幅连续下跌</t>
@@ -551,10 +551,10 @@
     <t>SM2409</t>
   </si>
   <si>
-    <t>短期高位小幅震荡+短期小幅急跌</t>
-  </si>
-  <si>
-    <t>长期中位小幅震荡+短期小幅急跌</t>
+    <t>短期高位小幅震荡+短期小幅急速下跌</t>
+  </si>
+  <si>
+    <t>长期中位小幅震荡+短期小幅急速下跌</t>
   </si>
   <si>
     <t>PX2501</t>
@@ -569,7 +569,7 @@
     <t>A2405</t>
   </si>
   <si>
-    <t>中期大幅连续下跌+短期大幅急涨+短期大幅连续下跌</t>
+    <t>中期大幅连续下跌+短期大幅急速上涨+短期大幅连续下跌</t>
   </si>
   <si>
     <t>长期中位小幅震荡+短期大幅连续下跌+短期低位小幅震荡</t>
@@ -599,7 +599,7 @@
     <t>长期中幅震荡下跌</t>
   </si>
   <si>
-    <t>长期小幅震荡下跌+短期小幅急涨</t>
+    <t>长期小幅震荡下跌+短期小幅急速上涨</t>
   </si>
   <si>
     <t>中期低位中幅震荡+中期大幅震荡上涨</t>
@@ -635,7 +635,7 @@
     <t>支撑位假跌破</t>
   </si>
   <si>
-    <t>短期大幅急跌+长期低位大幅震荡</t>
+    <t>短期大幅急速下跌+长期低位大幅震荡</t>
   </si>
   <si>
     <t>长期低位中幅震荡且底部抬升</t>
@@ -659,7 +659,7 @@
     <t>长期高位中幅震荡+短期大幅连续下跌+短期低位小幅震荡</t>
   </si>
   <si>
-    <t>短期大幅急涨+长期大幅连续下跌</t>
+    <t>短期大幅急速上涨+长期大幅连续下跌</t>
   </si>
   <si>
     <t>长期大幅震荡下跌+短期低位小幅震荡</t>
@@ -677,7 +677,7 @@
     <t>上跳+长阳包前</t>
   </si>
   <si>
-    <t>长期大幅震荡下跌+短期大幅急涨+短期中位中幅震荡</t>
+    <t>长期大幅震荡下跌+短期大幅急速上涨+短期中位中幅震荡</t>
   </si>
   <si>
     <t>短期小幅震荡上涨+短期中幅连续下跌</t>
@@ -692,7 +692,7 @@
     <t>长期大幅震荡下跌+长期低位大幅震荡</t>
   </si>
   <si>
-    <t>长期中幅震荡下跌+短期中幅急涨+短期小幅震荡下跌</t>
+    <t>长期中幅震荡下跌+短期中幅急速上涨+短期小幅震荡下跌</t>
   </si>
   <si>
     <t>连续长下影+长阳包前</t>
@@ -704,7 +704,7 @@
     <t>中期高位小幅震荡+长期大幅连续下跌</t>
   </si>
   <si>
-    <t>长期大幅震荡下跌+短期大幅急涨+中期大幅震荡下跌</t>
+    <t>长期大幅震荡下跌+短期大幅急速上涨+中期大幅震荡下跌</t>
   </si>
   <si>
     <t>长期低位小幅震荡</t>
@@ -713,10 +713,10 @@
     <t>PG2406</t>
   </si>
   <si>
-    <t>短期中幅急跌+中期低位小幅震荡</t>
-  </si>
-  <si>
-    <t>长期中幅震荡上涨+短期小幅急跌</t>
+    <t>短期中幅急速下跌+中期低位小幅震荡</t>
+  </si>
+  <si>
+    <t>长期中幅震荡上涨+短期小幅急速下跌</t>
   </si>
   <si>
     <t>长阳包前+破趋势</t>
@@ -734,16 +734,16 @@
     <t>EG2409</t>
   </si>
   <si>
-    <t>长期高位小幅震荡+短期中幅急涨+短期中幅连续下跌</t>
+    <t>长期高位小幅震荡+短期中幅急速上涨+短期中幅连续下跌</t>
   </si>
   <si>
     <t>中期大幅连续上涨+中期大幅震荡下跌</t>
   </si>
   <si>
-    <t>长期中位中幅震荡+短期大幅急涨+短期高位小幅震荡</t>
-  </si>
-  <si>
-    <t>长期高位中幅震荡+短期大幅急跌+短期中位小幅震荡</t>
+    <t>长期中位中幅震荡+短期大幅急速上涨+短期高位小幅震荡</t>
+  </si>
+  <si>
+    <t>长期高位中幅震荡+短期大幅急速下跌+短期中位小幅震荡</t>
   </si>
   <si>
     <t>长阳突破</t>
@@ -767,13 +767,13 @@
     <t>短期大幅连续下跌+长期低位中幅震荡</t>
   </si>
   <si>
-    <t>短期中幅急涨+中期高位小幅震荡且顶部下移</t>
+    <t>短期中幅急速上涨+中期高位小幅震荡且顶部下移</t>
   </si>
   <si>
     <t>RB2405</t>
   </si>
   <si>
-    <t>短期大幅急跌+中期低位中幅震荡</t>
+    <t>短期大幅急速下跌+中期低位中幅震荡</t>
   </si>
   <si>
     <t>短期小幅连续下跌+短期低位小幅震荡</t>
@@ -782,7 +782,7 @@
     <t>SI2406</t>
   </si>
   <si>
-    <t>短期中幅急跌+短期低位小幅震荡</t>
+    <t>短期中幅急速下跌+短期低位小幅震荡</t>
   </si>
   <si>
     <t>长期中位小幅震荡且顶部下移</t>
@@ -791,7 +791,7 @@
     <t>SH2405</t>
   </si>
   <si>
-    <t>长期中位中幅震荡+短期大幅急跌</t>
+    <t>长期中位中幅震荡+短期大幅急速下跌</t>
   </si>
   <si>
     <t>中期大幅连续下跌+中期低位小幅震荡</t>
@@ -800,7 +800,7 @@
     <t>JD2405</t>
   </si>
   <si>
-    <t>短期大幅急跌+中期大幅连续上涨+中期中位中幅震荡</t>
+    <t>短期大幅急速下跌+中期大幅连续上涨+中期中位中幅震荡</t>
   </si>
   <si>
     <t>中期大幅震荡下跌+中期中幅连续上涨+短期中位小幅震荡</t>
@@ -812,7 +812,7 @@
     <t>长期大幅震荡下跌+短期中幅连续上涨</t>
   </si>
   <si>
-    <t>短期中幅急涨+中期中位小幅震荡+短期高位小幅震荡</t>
+    <t>短期中幅急速上涨+中期中位小幅震荡+短期高位小幅震荡</t>
   </si>
   <si>
     <t>长阴包前+下跳</t>
@@ -827,7 +827,7 @@
     <t>中期中位大幅震荡+中期高位大幅震荡且顶部下移</t>
   </si>
   <si>
-    <t>长期中位大幅震荡+短期大幅急涨</t>
+    <t>长期中位大幅震荡+短期大幅急速上涨</t>
   </si>
   <si>
     <t>中期大幅连续上涨+长期高位中幅震荡</t>
@@ -839,7 +839,7 @@
     <t>SN2408</t>
   </si>
   <si>
-    <t>短期中幅急跌+短期小幅震荡上涨+短期小幅震荡下跌</t>
+    <t>短期中幅急速下跌+短期小幅震荡上涨+短期小幅震荡下跌</t>
   </si>
   <si>
     <t>SH2409</t>
@@ -905,7 +905,7 @@
     <t>IC9999</t>
   </si>
   <si>
-    <t>短期中幅急跌+短期小幅震荡上涨</t>
+    <t>短期中幅急速下跌+短期小幅震荡上涨</t>
   </si>
   <si>
     <t>中期中位小幅震荡+中期小幅震荡上涨</t>
@@ -923,7 +923,7 @@
     <t>SI2409</t>
   </si>
   <si>
-    <t>长期大幅震荡下跌+短期大幅急涨+中期中位中幅震荡</t>
+    <t>长期大幅震荡下跌+短期大幅急速上涨+中期中位中幅震荡</t>
   </si>
   <si>
     <t>长期大幅震荡上涨+短期中位宽幅震荡</t>
@@ -944,7 +944,7 @@
     <t>TA2409</t>
   </si>
   <si>
-    <t>长期中位中幅震荡+短期小幅急涨</t>
+    <t>长期中位中幅震荡+短期小幅急速上涨</t>
   </si>
   <si>
     <t>上跳+十字星+上跳跌回+长阴包前+破趋势</t>
@@ -959,7 +959,7 @@
     <t>AU2410</t>
   </si>
   <si>
-    <t>长期低位小幅震荡+短期中幅急涨</t>
+    <t>长期低位小幅震荡+短期中幅急速上涨</t>
   </si>
   <si>
     <t>长上影+上跳跌回+长阴包前+破趋势</t>
@@ -1001,7 +1001,7 @@
     <t>短期大幅连续上涨+短期中幅震荡下跌+短期中幅连续上涨</t>
   </si>
   <si>
-    <t>短期大幅急跌+短期大幅连续上涨+长期高位小幅震荡</t>
+    <t>短期大幅急速下跌+短期大幅连续上涨+长期高位小幅震荡</t>
   </si>
   <si>
     <t>中期小幅震荡上涨+长期高位小幅震荡且底部抬升</t>
@@ -1040,48 +1040,75 @@
     <t>SF2406</t>
   </si>
   <si>
-    <t>中期中位中幅震荡+短期小幅急涨</t>
+    <t>中期中位中幅震荡+短期小幅急速上涨</t>
   </si>
   <si>
     <t>中期大幅震荡上涨+中期高位小幅震荡+突破回踩</t>
   </si>
   <si>
-    <t>中期高位中幅震荡+短期大幅连续下跌+短期小幅急涨</t>
+    <t>中期高位中幅震荡+短期大幅连续下跌+短期小幅急速上涨</t>
   </si>
   <si>
     <t>有</t>
   </si>
   <si>
-    <t>中期中幅中位震荡+短期中幅急涨+中期高位小幅震荡</t>
-  </si>
-  <si>
-    <t>长期高位小幅震荡+短期小幅急跌</t>
-  </si>
-  <si>
-    <t>中期中位大幅震荡+短期大幅连续上涨+短期小幅急跌</t>
-  </si>
-  <si>
-    <t>长期高位小幅震荡+短期小幅急跌+短期中位小幅震荡</t>
+    <t>中期中幅中位震荡+短期中幅急速上涨+中期高位小幅震荡</t>
+  </si>
+  <si>
+    <t>长期高位小幅震荡+短期小幅急速下跌</t>
+  </si>
+  <si>
+    <t>中期中位大幅震荡+短期大幅连续上涨+短期小幅急速下跌</t>
+  </si>
+  <si>
+    <t>长期高位小幅震荡+短期小幅急速下跌+短期中位小幅震荡</t>
   </si>
   <si>
     <t>中期大幅连续上涨+短期大幅连续下跌</t>
   </si>
   <si>
+    <t>短期小幅高位震荡+短期小幅急速下跌</t>
+  </si>
+  <si>
+    <t>长期中位小幅震荡+短期小幅连续上涨</t>
+  </si>
+  <si>
+    <t>短期中位小幅震荡+短期中幅急速上涨+短期高位小幅震荡</t>
+  </si>
+  <si>
+    <t>中期中位小幅震荡+短期小幅连续下跌</t>
+  </si>
+  <si>
     <t>EG2501</t>
   </si>
   <si>
+    <t>短期低位小幅震荡+短期中幅急速上涨+短期小幅急速下跌</t>
+  </si>
+  <si>
     <t>ZN2410</t>
   </si>
   <si>
+    <t>中期高位小幅震荡+跌破反弹</t>
+  </si>
+  <si>
     <t>连续上跳+长阳包前</t>
   </si>
   <si>
     <t>P2501</t>
   </si>
   <si>
+    <t>中期中位小幅震荡+短期小幅急速下跌</t>
+  </si>
+  <si>
+    <t>中期中位小幅震荡+短期小幅急速上涨+中期中幅连续下跌</t>
+  </si>
+  <si>
     <t>PF2411</t>
   </si>
   <si>
+    <t>短期大幅连续上涨+短期小幅急速下跌+短期中位中幅震荡</t>
+  </si>
+  <si>
     <t>连续刺不破+长阴跌破</t>
   </si>
   <si>
@@ -1097,7 +1124,7 @@
     <t>MA2501</t>
   </si>
   <si>
-    <t>短期大幅连续上涨+中期中位大幅震荡且顶部下移+短期大幅急跌</t>
+    <t>短期大幅连续上涨+中期中位大幅震荡且顶部下移+短期大幅急速下跌</t>
   </si>
   <si>
     <t>长期大幅连续下跌+短期低位小幅震荡</t>
@@ -1109,13 +1136,13 @@
     <t>长期中位大幅震荡且顶部下移</t>
   </si>
   <si>
-    <t>中期高位中幅震荡+短期大幅急跌+短期小幅连续上涨</t>
+    <t>中期高位中幅震荡+短期大幅急速下跌+短期小幅连续上涨</t>
   </si>
   <si>
     <t>J2501</t>
   </si>
   <si>
-    <t>长期中位中幅震荡+短期中幅急跌</t>
+    <t>长期中位中幅震荡+短期中幅急速下跌</t>
   </si>
   <si>
     <t>十字星+连续刺不破+下跳</t>
@@ -1127,10 +1154,409 @@
     <t>HC2501</t>
   </si>
   <si>
-    <t>中期大幅连续上涨+短期大幅急跌+中期中位中幅震荡</t>
+    <t>中期大幅连续上涨+短期大幅急速下跌+中期中位中幅震荡</t>
   </si>
   <si>
     <t>短期大幅连续上涨+长期大幅震荡下跌+短期小幅连续上涨</t>
+  </si>
+  <si>
+    <t>长期中位小幅震荡+中期中幅连续下跌</t>
+  </si>
+  <si>
+    <t>中期高位小幅震荡+短期中幅急速下跌</t>
+  </si>
+  <si>
+    <t>长期高位小幅震荡+中期大幅连续下跌</t>
+  </si>
+  <si>
+    <t>中期大幅震荡下跌+短期大幅急速下跌+短期小幅连续上涨</t>
+  </si>
+  <si>
+    <t>连续刺不破+上跳+长阳突破</t>
+  </si>
+  <si>
+    <t>中期大幅连续上涨+中期大幅连续下跌</t>
+  </si>
+  <si>
+    <t>长期中位大幅震荡+短期大幅急速下跌</t>
+  </si>
+  <si>
+    <t>短期大幅连续上涨+长期大幅连续下跌</t>
+  </si>
+  <si>
+    <t>FG2501</t>
+  </si>
+  <si>
+    <t>中期大幅震荡下跌+短期大幅急速上涨+短期中位+中期中位小幅震荡</t>
+  </si>
+  <si>
+    <t>中期中位小幅震荡+短期小幅连续上涨</t>
+  </si>
+  <si>
+    <t>涨不上去+长阴包前</t>
+  </si>
+  <si>
+    <t>PG2410</t>
+  </si>
+  <si>
+    <t>短期大幅连续上涨+短期中幅急速下跌+短期小幅急速上涨</t>
+  </si>
+  <si>
+    <t>中期大幅震荡下跌+短期大幅连续上涨+短期小幅连续下跌</t>
+  </si>
+  <si>
+    <t>下跳涨回+长下影+长阳包前</t>
+  </si>
+  <si>
+    <t>AO2410</t>
+  </si>
+  <si>
+    <t>长期中位中幅震荡后短期中幅急速下跌</t>
+  </si>
+  <si>
+    <t>长期大幅连续下跌后短期低位小幅震荡</t>
+  </si>
+  <si>
+    <t>连续刺不破+上跳跌回+长阴包前+长阴跌破</t>
+  </si>
+  <si>
+    <t>V2501</t>
+  </si>
+  <si>
+    <t>短期中幅连续下跌+短期小幅连续上涨+短期小幅急速下跌</t>
+  </si>
+  <si>
+    <t>连续上跳+长阳突破</t>
+  </si>
+  <si>
+    <t>RU2501</t>
+  </si>
+  <si>
+    <t>短期低位中幅震荡+长期大幅震荡上涨</t>
+  </si>
+  <si>
+    <t>短期大幅连续下跌+短期中幅连续上涨+短期小幅急速下跌</t>
+  </si>
+  <si>
+    <t>NR2411</t>
+  </si>
+  <si>
+    <t>中期中位小幅震荡+短期小幅急速上涨</t>
+  </si>
+  <si>
+    <t>下跳+长阴跌破+破趋势</t>
+  </si>
+  <si>
+    <t>中期中幅震荡下跌</t>
+  </si>
+  <si>
+    <t>高位中期中幅震荡+短期中幅连续下跌+短期低位小幅震荡</t>
+  </si>
+  <si>
+    <t>连续下跳+长阴跌破</t>
+  </si>
+  <si>
+    <t>SH2501</t>
+  </si>
+  <si>
+    <t>上跳破+连续上跳+长下影+破趋势+下跳涨回</t>
+  </si>
+  <si>
+    <t>IH2409</t>
+  </si>
+  <si>
+    <t>长期中位小幅震荡+短期中幅急速上涨+短期中幅连续下跌</t>
+  </si>
+  <si>
+    <t>CU2410</t>
+  </si>
+  <si>
+    <t>中期大幅震荡上涨+短期中幅连续下跌</t>
+  </si>
+  <si>
+    <t>长期大幅震荡下跌+短期中位小幅震荡</t>
+  </si>
+  <si>
+    <t>BC2410</t>
+  </si>
+  <si>
+    <t>短期高位小幅震荡+中期大幅震荡下跌+短期小幅急速上涨</t>
+  </si>
+  <si>
+    <t>C2411</t>
+  </si>
+  <si>
+    <t>中期大幅震荡下跌+中期低位大幅震荡</t>
+  </si>
+  <si>
+    <t>短期大幅连续下跌+短期低位小幅震荡</t>
+  </si>
+  <si>
+    <t>连续刺不破+上跳+长下影+破趋势</t>
+  </si>
+  <si>
+    <t>NI2410</t>
+  </si>
+  <si>
+    <t>短期大幅连续上涨+中期中位小幅震荡+中期中幅连续下跌</t>
+  </si>
+  <si>
+    <t>OI2501</t>
+  </si>
+  <si>
+    <t>中期高位中幅震荡+短期大幅连续下跌+短期中位中幅震荡</t>
+  </si>
+  <si>
+    <t>连续上跳+长下影</t>
+  </si>
+  <si>
+    <t>AG2412</t>
+  </si>
+  <si>
+    <t>压力位真突破+趋势真突破</t>
+  </si>
+  <si>
+    <t>长期大幅连续上涨+长期大幅连续下跌</t>
+  </si>
+  <si>
+    <t>长期高位小幅震荡+中期小幅连续下跌+短期低位小幅震荡</t>
+  </si>
+  <si>
+    <t>下跳涨回+长阳包前+长下影+上跳破</t>
+  </si>
+  <si>
+    <t>SR2501</t>
+  </si>
+  <si>
+    <t>长期大幅震荡上涨+短期高位小幅震荡</t>
+  </si>
+  <si>
+    <t>AU2412</t>
+  </si>
+  <si>
+    <t>短期中幅连续下跌+短期大幅连续上涨</t>
+  </si>
+  <si>
+    <t>中期中位宽幅震荡+短期大幅急速下跌</t>
+  </si>
+  <si>
+    <t>长期大幅连续下跌</t>
+  </si>
+  <si>
+    <t>SA2501</t>
+  </si>
+  <si>
+    <t>长期大幅震荡下跌+短期中幅连续上涨+短期中幅连续下跌</t>
+  </si>
+  <si>
+    <t>连续刺不破+下跳涨回+上跳破+长阳突破</t>
+  </si>
+  <si>
+    <t>IF2410</t>
+  </si>
+  <si>
+    <t>长期大幅震荡下跌+短期中位小幅震荡+短期中幅连续下跌</t>
+  </si>
+  <si>
+    <t>跌不下去+长上影+上跳破+破趋势+长阳突破</t>
+  </si>
+  <si>
+    <t>IC2410</t>
+  </si>
+  <si>
+    <t>IM2410</t>
+  </si>
+  <si>
+    <t>短期小幅急速下跌+短期中位中幅震荡+短期中幅连续下跌</t>
+  </si>
+  <si>
+    <t>中期中位大幅震荡+短期大幅急速下跌</t>
+  </si>
+  <si>
+    <t>中期高位中幅震荡+短期大幅急速下跌+短期低位中幅震荡</t>
+  </si>
+  <si>
+    <t>中期高位小幅震荡+短期小幅急速上涨+突破回踩</t>
+  </si>
+  <si>
+    <t>长上影+上跳+长阳包前</t>
+  </si>
+  <si>
+    <t>长期中位大幅震荡+短期中幅急速下跌</t>
+  </si>
+  <si>
+    <t>中期高位中幅震荡+长期大幅震荡下跌</t>
+  </si>
+  <si>
+    <t>下跳+十字星+下跳涨回+长阳包前</t>
+  </si>
+  <si>
+    <t>SC2411</t>
+  </si>
+  <si>
+    <t>UR2501</t>
+  </si>
+  <si>
+    <t>长阳包前+长上影+长阳突破</t>
+  </si>
+  <si>
+    <t>RB2501</t>
+  </si>
+  <si>
+    <t>短期大幅急速上涨+中期高位中幅震荡</t>
+  </si>
+  <si>
+    <t>上跳+下跳涨回+长阳包前</t>
+  </si>
+  <si>
+    <t>EB2411</t>
+  </si>
+  <si>
+    <t>AO2411</t>
+  </si>
+  <si>
+    <t>长期高位大幅震荡+短期小幅急速下跌</t>
+  </si>
+  <si>
+    <t>下跳+上跳跌回+上跳+长下影</t>
+  </si>
+  <si>
+    <t>PP2501</t>
+  </si>
+  <si>
+    <t>下跳+长阳包前+破趋势</t>
+  </si>
+  <si>
+    <t>SF2501</t>
+  </si>
+  <si>
+    <t>长期中位小幅震荡+短期小幅连续上涨+短期小幅连续下跌</t>
+  </si>
+  <si>
+    <t>短期高位小幅震荡+中期中幅震荡下跌</t>
+  </si>
+  <si>
+    <t>中期高位中幅震荡+短期大幅连续下跌</t>
+  </si>
+  <si>
+    <t>十字星+下跳涨回+长阳包前</t>
+  </si>
+  <si>
+    <t>BU2411</t>
+  </si>
+  <si>
+    <t>中期高位小幅震荡+中期大幅连续下跌</t>
+  </si>
+  <si>
+    <t>十字星+长阳包前+长阳突破</t>
+  </si>
+  <si>
+    <t>短期高位中幅震荡+短期大幅急速下跌</t>
+  </si>
+  <si>
+    <t>连续上跳跌回+上跳破+长阴包前+长上影</t>
+  </si>
+  <si>
+    <t>长期低位中幅震荡+短期中幅震荡上涨</t>
+  </si>
+  <si>
+    <t>连续上跳跌回+上跳+长阴包前</t>
+  </si>
+  <si>
+    <t>LH2501</t>
+  </si>
+  <si>
+    <t>长期大幅连续下跌+短期大幅急速上涨</t>
+  </si>
+  <si>
+    <t>长阳突破+上跳跌回+长阴跌破</t>
+  </si>
+  <si>
+    <t>短期中位小幅震荡+短期中幅急速下跌+短期小幅急速上涨</t>
+  </si>
+  <si>
+    <t>长阳包前+上跳+长阳突破</t>
+  </si>
+  <si>
+    <t>中期低位大幅震荡+短期大幅连续上涨+短期高位中幅震荡</t>
+  </si>
+  <si>
+    <t>中期高位中幅震荡+短期低位中幅震荡+短期中幅连续上涨</t>
+  </si>
+  <si>
+    <t>长阴跌破+连续刺不破+上跳</t>
+  </si>
+  <si>
+    <t>长阴包前+连续上跳+长下影</t>
+  </si>
+  <si>
+    <t>长期大幅震荡下跌+短期小幅急速上涨+短期小幅急速下跌</t>
+  </si>
+  <si>
+    <t>长阳包前+长上影+上跳破</t>
+  </si>
+  <si>
+    <t>IC2412</t>
+  </si>
+  <si>
+    <t>短期大幅连续上涨+中期大幅震荡下跌+短期大幅急速上涨</t>
+  </si>
+  <si>
+    <t>下跳+长阴跌破+下跳涨回+长阳突破</t>
+  </si>
+  <si>
+    <t>EC2412</t>
+  </si>
+  <si>
+    <t>上跳跌回+长上影+连续上跳+长阳突破</t>
+  </si>
+  <si>
+    <t>AP2501</t>
+  </si>
+  <si>
+    <t>短期低位中幅震荡+短期大幅连续上涨+短期高位小幅震荡</t>
+  </si>
+  <si>
+    <t>下跳涨回+上跳+下跳+长阴跌破+破趋势</t>
+  </si>
+  <si>
+    <t>中期中位小幅震荡+中期高位小幅震荡</t>
+  </si>
+  <si>
+    <t>长期中位小幅震荡+短期中幅急速上涨+短期小幅急速下跌</t>
+  </si>
+  <si>
+    <t>上跳+连续下跳+长上影+下跳涨回+长阳包前+破趋势</t>
+  </si>
+  <si>
+    <t>长期低位大幅震荡+中期大幅连续上涨</t>
+  </si>
+  <si>
+    <t>上跳+长阳突破+长下影</t>
+  </si>
+  <si>
+    <t>AO2501</t>
+  </si>
+  <si>
+    <t>中期大幅震荡上涨+短期小幅急速下跌+短期小幅急速上涨</t>
+  </si>
+  <si>
+    <t>下跳破+长阳突破</t>
+  </si>
+  <si>
+    <t>EC2502</t>
+  </si>
+  <si>
+    <t>短期大幅急速上涨+长期大幅震荡下跌</t>
+  </si>
+  <si>
+    <t>中期大幅连续下跌+短期中幅连续上涨+中期中位小幅震荡</t>
+  </si>
+  <si>
+    <t>长阳突破+上跳跌回+上跳</t>
+  </si>
+  <si>
+    <t>B2501</t>
   </si>
 </sst>
 </file>
@@ -1750,9 +2176,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2287,34 +2715,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G135"/>
+  <dimension ref="A1:G197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B118" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B144" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C124" sqref="C124"/>
+      <selection pane="bottomRight" activeCell="D151" sqref="D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7265625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.03125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="36.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="27.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5078125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.25" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -2334,10 +2762,10 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
@@ -2357,10 +2785,10 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
@@ -2380,10 +2808,10 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
@@ -2403,10 +2831,10 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
@@ -2426,10 +2854,10 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D6" t="s">
@@ -2449,10 +2877,10 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D7" t="s">
@@ -2472,10 +2900,10 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D8" t="s">
@@ -2495,10 +2923,10 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D9" t="s">
@@ -2518,10 +2946,10 @@
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D10" t="s">
@@ -2541,10 +2969,10 @@
       <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D11" t="s">
@@ -2564,10 +2992,10 @@
       <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D12" t="s">
@@ -2587,10 +3015,10 @@
       <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D13" t="s">
@@ -2610,10 +3038,10 @@
       <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D14" t="s">
@@ -2633,10 +3061,10 @@
       <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D15" t="s">
@@ -2656,10 +3084,10 @@
       <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D16" t="s">
@@ -2679,10 +3107,10 @@
       <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D17" t="s">
@@ -2702,10 +3130,10 @@
       <c r="A18" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D18" t="s">
@@ -2725,10 +3153,10 @@
       <c r="A19" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D19" t="s">
@@ -2748,10 +3176,10 @@
       <c r="A20" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D20" t="s">
@@ -2771,10 +3199,10 @@
       <c r="A21" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D21" t="s">
@@ -2794,10 +3222,10 @@
       <c r="A22" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D22" t="s">
@@ -2817,10 +3245,10 @@
       <c r="A23" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D23" t="s">
@@ -2840,10 +3268,10 @@
       <c r="A24" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D24" t="s">
@@ -2863,10 +3291,10 @@
       <c r="A25" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D25" t="s">
@@ -2886,10 +3314,10 @@
       <c r="A26" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D26" t="s">
@@ -2909,10 +3337,10 @@
       <c r="A27" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D27" t="s">
@@ -2932,10 +3360,10 @@
       <c r="A28" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D28" t="s">
@@ -2955,10 +3383,10 @@
       <c r="A29" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D29" t="s">
@@ -2978,10 +3406,10 @@
       <c r="A30" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D30" t="s">
@@ -3001,10 +3429,10 @@
       <c r="A31" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D31" t="s">
@@ -3024,10 +3452,10 @@
       <c r="A32" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D32" t="s">
@@ -3047,10 +3475,10 @@
       <c r="A33" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>107</v>
       </c>
       <c r="D33" t="s">
@@ -3070,10 +3498,10 @@
       <c r="A34" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D34" t="s">
@@ -3093,10 +3521,10 @@
       <c r="A35" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D35" t="s">
@@ -3116,10 +3544,10 @@
       <c r="A36" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D36" t="s">
@@ -3139,10 +3567,10 @@
       <c r="A37" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D37" t="s">
@@ -3162,10 +3590,10 @@
       <c r="A38" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D38" t="s">
@@ -3185,10 +3613,10 @@
       <c r="A39" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D39" t="s">
@@ -3208,10 +3636,10 @@
       <c r="A40" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>124</v>
       </c>
       <c r="D40" t="s">
@@ -3231,10 +3659,10 @@
       <c r="A41" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>128</v>
       </c>
       <c r="D41" t="s">
@@ -3254,10 +3682,10 @@
       <c r="A42" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D42" t="s">
@@ -3277,10 +3705,10 @@
       <c r="A43" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D43" t="s">
@@ -3300,10 +3728,10 @@
       <c r="A44" t="s">
         <v>69</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D44" t="s">
@@ -3323,10 +3751,10 @@
       <c r="A45" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>136</v>
       </c>
       <c r="D45" t="s">
@@ -3346,10 +3774,10 @@
       <c r="A46" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D46" t="s">
@@ -3369,10 +3797,10 @@
       <c r="A47" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D47" t="s">
@@ -3392,10 +3820,10 @@
       <c r="A48" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D48" t="s">
@@ -3415,10 +3843,10 @@
       <c r="A49" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>148</v>
       </c>
       <c r="D49" t="s">
@@ -3438,10 +3866,10 @@
       <c r="A50" t="s">
         <v>69</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="1" t="s">
         <v>152</v>
       </c>
       <c r="D50" t="s">
@@ -3461,10 +3889,10 @@
       <c r="A51" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>156</v>
       </c>
       <c r="D51" t="s">
@@ -3484,10 +3912,10 @@
       <c r="A52" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D52" t="s">
@@ -3507,10 +3935,10 @@
       <c r="A53" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="1" t="s">
         <v>163</v>
       </c>
       <c r="D53" t="s">
@@ -3530,10 +3958,10 @@
       <c r="A54" t="s">
         <v>69</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="1" t="s">
         <v>166</v>
       </c>
       <c r="D54" t="s">
@@ -3553,10 +3981,10 @@
       <c r="A55" t="s">
         <v>69</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>170</v>
       </c>
       <c r="D55" t="s">
@@ -3576,10 +4004,10 @@
       <c r="A56" t="s">
         <v>69</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="1" t="s">
         <v>174</v>
       </c>
       <c r="D56" t="s">
@@ -3599,10 +4027,10 @@
       <c r="A57" t="s">
         <v>176</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D57" t="s">
@@ -3622,10 +4050,10 @@
       <c r="A58" t="s">
         <v>176</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="1" t="s">
         <v>180</v>
       </c>
       <c r="D58" t="s">
@@ -3645,10 +4073,10 @@
       <c r="A59" t="s">
         <v>176</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>183</v>
       </c>
       <c r="D59" t="s">
@@ -3668,10 +4096,10 @@
       <c r="A60" t="s">
         <v>176</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D60" t="s">
@@ -3691,10 +4119,10 @@
       <c r="A61" t="s">
         <v>176</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D61" t="s">
@@ -3714,10 +4142,10 @@
       <c r="A62" t="s">
         <v>176</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>191</v>
       </c>
       <c r="D62" t="s">
@@ -3737,10 +4165,10 @@
       <c r="A63" t="s">
         <v>176</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D63" t="s">
@@ -3760,10 +4188,10 @@
       <c r="A64" t="s">
         <v>176</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="1" t="s">
         <v>198</v>
       </c>
       <c r="D64" t="s">
@@ -3783,10 +4211,10 @@
       <c r="A65" t="s">
         <v>200</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="1" t="s">
         <v>202</v>
       </c>
       <c r="D65" t="s">
@@ -3806,10 +4234,10 @@
       <c r="A66" t="s">
         <v>200</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="1" t="s">
         <v>206</v>
       </c>
       <c r="D66" t="s">
@@ -3829,10 +4257,10 @@
       <c r="A67" t="s">
         <v>200</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D67" t="s">
@@ -3852,10 +4280,10 @@
       <c r="A68" t="s">
         <v>200</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="1" t="s">
         <v>210</v>
       </c>
       <c r="D68" t="s">
@@ -3875,10 +4303,10 @@
       <c r="A69" t="s">
         <v>200</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="1" t="s">
         <v>213</v>
       </c>
       <c r="D69" t="s">
@@ -3898,10 +4326,10 @@
       <c r="A70" t="s">
         <v>200</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="1" t="s">
         <v>216</v>
       </c>
       <c r="D70" t="s">
@@ -3921,10 +4349,10 @@
       <c r="A71" t="s">
         <v>200</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="1" t="s">
         <v>220</v>
       </c>
       <c r="D71" t="s">
@@ -3944,10 +4372,10 @@
       <c r="A72" t="s">
         <v>200</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="1" t="s">
         <v>223</v>
       </c>
       <c r="D72" t="s">
@@ -3967,10 +4395,10 @@
       <c r="A73" t="s">
         <v>200</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="1" t="s">
         <v>223</v>
       </c>
       <c r="D73" t="s">
@@ -3990,10 +4418,10 @@
       <c r="A74" t="s">
         <v>200</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D74" t="s">
@@ -4013,10 +4441,10 @@
       <c r="A75" t="s">
         <v>200</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="1" t="s">
         <v>228</v>
       </c>
       <c r="D75" t="s">
@@ -4036,10 +4464,10 @@
       <c r="A76" t="s">
         <v>200</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="1" t="s">
         <v>231</v>
       </c>
       <c r="D76" t="s">
@@ -4059,10 +4487,10 @@
       <c r="A77" t="s">
         <v>200</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="1" t="s">
         <v>235</v>
       </c>
       <c r="D77" t="s">
@@ -4082,10 +4510,10 @@
       <c r="A78" t="s">
         <v>200</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="1" t="s">
         <v>237</v>
       </c>
       <c r="D78" t="s">
@@ -4105,10 +4533,10 @@
       <c r="A79" t="s">
         <v>240</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="1" t="s">
         <v>242</v>
       </c>
       <c r="D79" t="s">
@@ -4128,10 +4556,10 @@
       <c r="A80" t="s">
         <v>240</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D80" t="s">
@@ -4151,10 +4579,10 @@
       <c r="A81" t="s">
         <v>240</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="1" t="s">
         <v>248</v>
       </c>
       <c r="D81" t="s">
@@ -4174,10 +4602,10 @@
       <c r="A82" t="s">
         <v>240</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="1" t="s">
         <v>251</v>
       </c>
       <c r="D82" t="s">
@@ -4197,10 +4625,10 @@
       <c r="A83" t="s">
         <v>240</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="1" t="s">
         <v>254</v>
       </c>
       <c r="D83" t="s">
@@ -4220,10 +4648,10 @@
       <c r="A84" t="s">
         <v>240</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="1" t="s">
         <v>257</v>
       </c>
       <c r="D84" t="s">
@@ -4243,10 +4671,10 @@
       <c r="A85" t="s">
         <v>240</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="1" t="s">
         <v>260</v>
       </c>
       <c r="D85" t="s">
@@ -4266,10 +4694,10 @@
       <c r="A86" t="s">
         <v>240</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D86" t="s">
@@ -4289,10 +4717,10 @@
       <c r="A87" t="s">
         <v>240</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="1" t="s">
         <v>264</v>
       </c>
       <c r="D87" t="s">
@@ -4312,10 +4740,10 @@
       <c r="A88" t="s">
         <v>240</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="1" t="s">
         <v>266</v>
       </c>
       <c r="D88" t="s">
@@ -4335,10 +4763,10 @@
       <c r="A89" t="s">
         <v>240</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="1" t="s">
         <v>269</v>
       </c>
       <c r="D89" t="s">
@@ -4358,10 +4786,10 @@
       <c r="A90" t="s">
         <v>240</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="1" t="s">
         <v>271</v>
       </c>
       <c r="D90" t="s">
@@ -4381,10 +4809,10 @@
       <c r="A91" t="s">
         <v>240</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="1" t="s">
         <v>272</v>
       </c>
       <c r="D91" t="s">
@@ -4404,10 +4832,10 @@
       <c r="A92" t="s">
         <v>274</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="1" t="s">
         <v>275</v>
       </c>
       <c r="D92" t="s">
@@ -4427,10 +4855,10 @@
       <c r="A93" t="s">
         <v>274</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="1" t="s">
         <v>277</v>
       </c>
       <c r="D93" t="s">
@@ -4450,10 +4878,10 @@
       <c r="A94" t="s">
         <v>274</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="1" t="s">
         <v>279</v>
       </c>
       <c r="D94" t="s">
@@ -4473,10 +4901,10 @@
       <c r="A95" t="s">
         <v>274</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="1" t="s">
         <v>282</v>
       </c>
       <c r="D95" t="s">
@@ -4496,10 +4924,10 @@
       <c r="A96" t="s">
         <v>274</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="1" t="s">
         <v>285</v>
       </c>
       <c r="D96" t="s">
@@ -4519,10 +4947,10 @@
       <c r="A97" t="s">
         <v>274</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="1" t="s">
         <v>288</v>
       </c>
       <c r="D97" t="s">
@@ -4542,10 +4970,10 @@
       <c r="A98" t="s">
         <v>274</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="1" t="s">
         <v>292</v>
       </c>
       <c r="D98" t="s">
@@ -4565,10 +4993,10 @@
       <c r="A99" t="s">
         <v>274</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="1" t="s">
         <v>294</v>
       </c>
       <c r="D99" t="s">
@@ -4588,10 +5016,10 @@
       <c r="A100" t="s">
         <v>274</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="1" t="s">
         <v>298</v>
       </c>
       <c r="D100" t="s">
@@ -4611,10 +5039,10 @@
       <c r="A101" t="s">
         <v>274</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="1" t="s">
         <v>300</v>
       </c>
       <c r="D101" t="s">
@@ -4634,10 +5062,10 @@
       <c r="A102" t="s">
         <v>274</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="1" t="s">
         <v>301</v>
       </c>
       <c r="D102" t="s">
@@ -4657,10 +5085,10 @@
       <c r="A103" t="s">
         <v>274</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="1" t="s">
         <v>304</v>
       </c>
       <c r="D103" t="s">
@@ -4680,10 +5108,10 @@
       <c r="A104" t="s">
         <v>274</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="1" t="s">
         <v>300</v>
       </c>
       <c r="D104" t="s">
@@ -4703,10 +5131,10 @@
       <c r="A105" t="s">
         <v>274</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="1" t="s">
         <v>309</v>
       </c>
       <c r="D105" t="s">
@@ -4726,10 +5154,10 @@
       <c r="A106" t="s">
         <v>274</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="1" t="s">
         <v>312</v>
       </c>
       <c r="D106" t="s">
@@ -4749,10 +5177,10 @@
       <c r="A107" t="s">
         <v>274</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="1" t="s">
         <v>315</v>
       </c>
       <c r="D107" t="s">
@@ -4772,10 +5200,10 @@
       <c r="A108" t="s">
         <v>274</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="1" t="s">
         <v>318</v>
       </c>
       <c r="D108" t="s">
@@ -4795,10 +5223,10 @@
       <c r="A109" t="s">
         <v>321</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="1" t="s">
         <v>322</v>
       </c>
       <c r="D109" t="s">
@@ -4818,10 +5246,10 @@
       <c r="A110" t="s">
         <v>321</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="1" t="s">
         <v>324</v>
       </c>
       <c r="D110" t="s">
@@ -4841,10 +5269,10 @@
       <c r="A111" t="s">
         <v>321</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="1" t="s">
         <v>326</v>
       </c>
       <c r="D111" t="s">
@@ -4864,10 +5292,10 @@
       <c r="A112" t="s">
         <v>321</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D112" t="s">
@@ -4887,10 +5315,10 @@
       <c r="A113" t="s">
         <v>321</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="1" t="s">
         <v>331</v>
       </c>
       <c r="D113" t="s">
@@ -4910,10 +5338,10 @@
       <c r="A114" t="s">
         <v>321</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="1" t="s">
         <v>333</v>
       </c>
       <c r="D114" t="s">
@@ -4933,10 +5361,10 @@
       <c r="A115" t="s">
         <v>321</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="1" t="s">
         <v>337</v>
       </c>
       <c r="D115" t="s">
@@ -4956,10 +5384,10 @@
       <c r="A116" t="s">
         <v>69</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="1" t="s">
         <v>338</v>
       </c>
       <c r="D116" t="s">
@@ -4979,10 +5407,10 @@
       <c r="A117" t="s">
         <v>69</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="1" t="s">
         <v>341</v>
       </c>
       <c r="D117" t="s">
@@ -5002,10 +5430,10 @@
       <c r="A118" t="s">
         <v>200</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="1" t="s">
         <v>343</v>
       </c>
       <c r="D118" t="s">
@@ -5021,14 +5449,14 @@
         <v>339</v>
       </c>
     </row>
-    <row r="119" ht="34" spans="1:6">
+    <row r="119" ht="34" spans="1:7">
       <c r="A119" t="s">
         <v>69</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="1" t="s">
         <v>344</v>
       </c>
       <c r="D119" t="s">
@@ -5040,11 +5468,20 @@
       <c r="F119">
         <v>20240708</v>
       </c>
-    </row>
-    <row r="120" spans="1:6">
+      <c r="G119" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" ht="34" spans="1:6">
       <c r="A120" t="s">
         <v>69</v>
       </c>
+      <c r="B120" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="D120" t="s">
         <v>76</v>
       </c>
@@ -5055,10 +5492,16 @@
         <v>20240805</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" ht="17" spans="1:6">
       <c r="A121" t="s">
         <v>274</v>
       </c>
+      <c r="B121" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>346</v>
+      </c>
       <c r="D121" t="s">
         <v>319</v>
       </c>
@@ -5069,71 +5512,101 @@
         <v>20240816</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" ht="34" spans="1:6">
       <c r="A122" t="s">
         <v>200</v>
       </c>
+      <c r="B122" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="D122" t="s">
         <v>52</v>
       </c>
       <c r="E122" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="F122">
         <v>20240816</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" ht="34" spans="1:6">
       <c r="A123" t="s">
         <v>200</v>
       </c>
+      <c r="B123" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="D123" t="s">
         <v>20</v>
       </c>
       <c r="E123" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F123">
         <v>20240809</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" ht="17" spans="1:6">
       <c r="A124" t="s">
         <v>200</v>
       </c>
+      <c r="B124" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="D124" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="E124" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="F124">
         <v>20240819</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" ht="34" spans="1:6">
       <c r="A125" t="s">
         <v>69</v>
       </c>
+      <c r="B125" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="D125" t="s">
         <v>62</v>
       </c>
       <c r="E125" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="F125">
         <v>20240828</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" ht="34" spans="1:6">
       <c r="A126" t="s">
         <v>69</v>
       </c>
+      <c r="B126" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="D126" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="E126" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="F126">
         <v>20240902</v>
@@ -5143,17 +5616,17 @@
       <c r="A127" t="s">
         <v>69</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>353</v>
+      <c r="B127" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="D127" t="s">
         <v>125</v>
       </c>
       <c r="E127" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="F127">
         <v>20240902</v>
@@ -5163,17 +5636,17 @@
       <c r="A128" t="s">
         <v>69</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>356</v>
+      <c r="B128" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="D128" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="E128" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="F128">
         <v>20240902</v>
@@ -5183,17 +5656,17 @@
       <c r="A129" t="s">
         <v>69</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>359</v>
+      <c r="B129" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>368</v>
       </c>
       <c r="D129" t="s">
         <v>141</v>
       </c>
       <c r="E129" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="F129">
         <v>20240902</v>
@@ -5203,14 +5676,14 @@
       <c r="A130" t="s">
         <v>69</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C130" s="2" t="s">
+      <c r="B130" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>333</v>
       </c>
       <c r="D130" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="E130" t="s">
         <v>138</v>
@@ -5223,17 +5696,17 @@
       <c r="A131" t="s">
         <v>69</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>363</v>
+      <c r="B131" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>372</v>
       </c>
       <c r="D131" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="E131" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="F131">
         <v>20240902</v>
@@ -5243,17 +5716,17 @@
       <c r="A132" t="s">
         <v>69</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>366</v>
+      <c r="B132" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>375</v>
       </c>
       <c r="D132" t="s">
         <v>319</v>
       </c>
       <c r="E132" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="F132">
         <v>20240828</v>
@@ -5273,10 +5746,16 @@
         <v>20240828</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" ht="34" spans="1:6">
       <c r="A134" t="s">
         <v>69</v>
       </c>
+      <c r="B134" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>376</v>
+      </c>
       <c r="D134" t="s">
         <v>141</v>
       </c>
@@ -5287,10 +5766,16 @@
         <v>20240902</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" ht="34" spans="1:6">
       <c r="A135" t="s">
         <v>69</v>
       </c>
+      <c r="B135" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>378</v>
+      </c>
       <c r="D135" t="s">
         <v>319</v>
       </c>
@@ -5301,8 +5786,1170 @@
         <v>20240902</v>
       </c>
     </row>
+    <row r="136" ht="34" spans="1:6">
+      <c r="A136" t="s">
+        <v>176</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D136" t="s">
+        <v>380</v>
+      </c>
+      <c r="E136" t="s">
+        <v>154</v>
+      </c>
+      <c r="F136">
+        <v>20240903</v>
+      </c>
+    </row>
+    <row r="137" ht="34" spans="1:6">
+      <c r="A137" t="s">
+        <v>69</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D137" t="s">
+        <v>64</v>
+      </c>
+      <c r="E137" t="s">
+        <v>135</v>
+      </c>
+      <c r="F137">
+        <v>20240830</v>
+      </c>
+    </row>
+    <row r="138" ht="34" spans="1:6">
+      <c r="A138" t="s">
+        <v>69</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D138" t="s">
+        <v>141</v>
+      </c>
+      <c r="E138" t="s">
+        <v>384</v>
+      </c>
+      <c r="F138">
+        <v>20240902</v>
+      </c>
+    </row>
+    <row r="139" ht="34" spans="1:6">
+      <c r="A139" t="s">
+        <v>69</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D139" t="s">
+        <v>387</v>
+      </c>
+      <c r="E139" t="s">
+        <v>388</v>
+      </c>
+      <c r="F139">
+        <v>20240902</v>
+      </c>
+    </row>
+    <row r="140" ht="34" spans="1:6">
+      <c r="A140" t="s">
+        <v>69</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D140" t="s">
+        <v>391</v>
+      </c>
+      <c r="E140" t="s">
+        <v>392</v>
+      </c>
+      <c r="F140">
+        <v>20240911</v>
+      </c>
+    </row>
+    <row r="141" ht="34" spans="1:6">
+      <c r="A141" t="s">
+        <v>69</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D141" t="s">
+        <v>395</v>
+      </c>
+      <c r="E141" t="s">
+        <v>396</v>
+      </c>
+      <c r="F141">
+        <v>20240902</v>
+      </c>
+    </row>
+    <row r="142" ht="34" spans="1:6">
+      <c r="A142" t="s">
+        <v>69</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D142" t="s">
+        <v>398</v>
+      </c>
+      <c r="E142" t="s">
+        <v>399</v>
+      </c>
+      <c r="F142">
+        <v>20240906</v>
+      </c>
+    </row>
+    <row r="143" ht="34" spans="1:6">
+      <c r="A143" t="s">
+        <v>69</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D143" t="s">
+        <v>20</v>
+      </c>
+      <c r="E143" t="s">
+        <v>402</v>
+      </c>
+      <c r="F143">
+        <v>20240906</v>
+      </c>
+    </row>
+    <row r="144" ht="34" spans="1:6">
+      <c r="A144" t="s">
+        <v>274</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D144" t="s">
+        <v>404</v>
+      </c>
+      <c r="E144" t="s">
+        <v>349</v>
+      </c>
+      <c r="F144">
+        <v>20240903</v>
+      </c>
+    </row>
+    <row r="145" ht="34" spans="1:6">
+      <c r="A145" t="s">
+        <v>240</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D145" t="s">
+        <v>407</v>
+      </c>
+      <c r="E145" t="s">
+        <v>408</v>
+      </c>
+      <c r="F145">
+        <v>20240918</v>
+      </c>
+    </row>
+    <row r="146" ht="17" spans="1:6">
+      <c r="A146" t="s">
+        <v>200</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D146" t="s">
+        <v>409</v>
+      </c>
+      <c r="E146" t="s">
+        <v>410</v>
+      </c>
+      <c r="F146">
+        <v>20240919</v>
+      </c>
+    </row>
+    <row r="147" ht="34" spans="1:6">
+      <c r="A147" t="s">
+        <v>321</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D147" t="s">
+        <v>398</v>
+      </c>
+      <c r="E147" t="s">
+        <v>412</v>
+      </c>
+      <c r="F147">
+        <v>20240924</v>
+      </c>
+    </row>
+    <row r="148" ht="34" spans="1:6">
+      <c r="A148" t="s">
+        <v>321</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D148" t="s">
+        <v>398</v>
+      </c>
+      <c r="E148" t="s">
+        <v>415</v>
+      </c>
+      <c r="F148">
+        <v>20240919</v>
+      </c>
+    </row>
+    <row r="149" ht="34" spans="1:6">
+      <c r="A149" t="s">
+        <v>69</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D149" t="s">
+        <v>64</v>
+      </c>
+      <c r="E149" t="s">
+        <v>417</v>
+      </c>
+      <c r="F149">
+        <v>20240902</v>
+      </c>
+    </row>
+    <row r="150" ht="34" spans="1:6">
+      <c r="A150" t="s">
+        <v>200</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D150" t="s">
+        <v>420</v>
+      </c>
+      <c r="E150" t="s">
+        <v>421</v>
+      </c>
+      <c r="F150">
+        <v>20240919</v>
+      </c>
+    </row>
+    <row r="151" ht="34" spans="1:6">
+      <c r="A151" t="s">
+        <v>200</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D151" t="s">
+        <v>211</v>
+      </c>
+      <c r="E151" t="s">
+        <v>423</v>
+      </c>
+      <c r="F151">
+        <v>20240821</v>
+      </c>
+    </row>
+    <row r="152" ht="34" spans="1:6">
+      <c r="A152" t="s">
+        <v>200</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D152" t="s">
+        <v>425</v>
+      </c>
+      <c r="E152" t="s">
+        <v>426</v>
+      </c>
+      <c r="F152">
+        <v>20240911</v>
+      </c>
+    </row>
+    <row r="153" ht="34" spans="1:6">
+      <c r="A153" t="s">
+        <v>427</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D153" t="s">
+        <v>430</v>
+      </c>
+      <c r="E153" t="s">
+        <v>431</v>
+      </c>
+      <c r="F153">
+        <v>20240912</v>
+      </c>
+    </row>
+    <row r="154" ht="34" spans="1:6">
+      <c r="A154" t="s">
+        <v>321</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" t="s">
+        <v>20</v>
+      </c>
+      <c r="E154" t="s">
+        <v>433</v>
+      </c>
+      <c r="F154">
+        <v>20240920</v>
+      </c>
+    </row>
+    <row r="155" ht="17" spans="1:6">
+      <c r="A155" t="s">
+        <v>69</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D155" t="s">
+        <v>20</v>
+      </c>
+      <c r="E155" t="s">
+        <v>399</v>
+      </c>
+      <c r="F155">
+        <v>20240924</v>
+      </c>
+    </row>
+    <row r="156" ht="34" spans="1:6">
+      <c r="A156" t="s">
+        <v>200</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D156" t="s">
+        <v>229</v>
+      </c>
+      <c r="E156" t="s">
+        <v>437</v>
+      </c>
+      <c r="F156">
+        <v>20240924</v>
+      </c>
+    </row>
+    <row r="157" ht="34" spans="1:6">
+      <c r="A157" t="s">
+        <v>176</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D157" t="s">
+        <v>439</v>
+      </c>
+      <c r="E157" t="s">
+        <v>440</v>
+      </c>
+      <c r="F157">
+        <v>20240924</v>
+      </c>
+    </row>
+    <row r="158" ht="34" spans="1:6">
+      <c r="A158" t="s">
+        <v>200</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D158" t="s">
+        <v>442</v>
+      </c>
+      <c r="E158" t="s">
+        <v>443</v>
+      </c>
+      <c r="F158">
+        <v>20240924</v>
+      </c>
+    </row>
+    <row r="159" ht="34" spans="1:6">
+      <c r="A159" t="s">
+        <v>200</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D159" t="s">
+        <v>442</v>
+      </c>
+      <c r="E159" t="s">
+        <v>444</v>
+      </c>
+      <c r="F159">
+        <v>20240924</v>
+      </c>
+    </row>
+    <row r="160" ht="34" spans="1:6">
+      <c r="A160" t="s">
+        <v>176</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D160" t="s">
+        <v>16</v>
+      </c>
+      <c r="E160" t="s">
+        <v>373</v>
+      </c>
+      <c r="F160">
+        <v>20240924</v>
+      </c>
+    </row>
+    <row r="161" ht="34" spans="1:6">
+      <c r="A161" t="s">
+        <v>200</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D161" t="s">
+        <v>181</v>
+      </c>
+      <c r="E161" t="s">
+        <v>360</v>
+      </c>
+      <c r="F161">
+        <v>20240924</v>
+      </c>
+    </row>
+    <row r="162" ht="34" spans="1:6">
+      <c r="A162" t="s">
+        <v>176</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D162" t="s">
+        <v>181</v>
+      </c>
+      <c r="E162" t="s">
+        <v>369</v>
+      </c>
+      <c r="F162">
+        <v>20240924</v>
+      </c>
+    </row>
+    <row r="163" ht="34" spans="1:6">
+      <c r="A163" t="s">
+        <v>7</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D163" t="s">
+        <v>449</v>
+      </c>
+      <c r="E163" t="s">
+        <v>354</v>
+      </c>
+      <c r="F163">
+        <v>20240918</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" t="s">
+        <v>200</v>
+      </c>
+      <c r="D164" t="s">
+        <v>425</v>
+      </c>
+      <c r="E164" t="s">
+        <v>426</v>
+      </c>
+      <c r="F164">
+        <v>20240911</v>
+      </c>
+    </row>
+    <row r="165" ht="34" spans="1:6">
+      <c r="A165" t="s">
+        <v>176</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D165" t="s">
+        <v>452</v>
+      </c>
+      <c r="E165" t="s">
+        <v>453</v>
+      </c>
+      <c r="F165">
+        <v>20240930</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" t="s">
+        <v>427</v>
+      </c>
+      <c r="D166" t="s">
+        <v>430</v>
+      </c>
+      <c r="E166" t="s">
+        <v>431</v>
+      </c>
+      <c r="F166">
+        <v>20240912</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" t="s">
+        <v>7</v>
+      </c>
+      <c r="D167" t="s">
+        <v>20</v>
+      </c>
+      <c r="E167" t="s">
+        <v>399</v>
+      </c>
+      <c r="F167">
+        <v>20240924</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" t="s">
+        <v>200</v>
+      </c>
+      <c r="D168" t="s">
+        <v>211</v>
+      </c>
+      <c r="E168" t="s">
+        <v>363</v>
+      </c>
+      <c r="F168">
+        <v>20240924</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" t="s">
+        <v>200</v>
+      </c>
+      <c r="D169" t="s">
+        <v>211</v>
+      </c>
+      <c r="E169" t="s">
+        <v>454</v>
+      </c>
+      <c r="F169">
+        <v>20240924</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" t="s">
+        <v>200</v>
+      </c>
+      <c r="D170" t="s">
+        <v>181</v>
+      </c>
+      <c r="E170" t="s">
+        <v>360</v>
+      </c>
+      <c r="F170">
+        <v>20240924</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" t="s">
+        <v>176</v>
+      </c>
+      <c r="D171" t="s">
+        <v>10</v>
+      </c>
+      <c r="E171" t="s">
+        <v>366</v>
+      </c>
+      <c r="F171">
+        <v>20240925</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" t="s">
+        <v>176</v>
+      </c>
+      <c r="D172" t="s">
+        <v>181</v>
+      </c>
+      <c r="E172" t="s">
+        <v>369</v>
+      </c>
+      <c r="F172">
+        <v>20240924</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" t="s">
+        <v>176</v>
+      </c>
+      <c r="D173" t="s">
+        <v>455</v>
+      </c>
+      <c r="E173" t="s">
+        <v>456</v>
+      </c>
+      <c r="F173">
+        <v>20240926</v>
+      </c>
+    </row>
+    <row r="174" ht="34" spans="1:6">
+      <c r="A174" t="s">
+        <v>200</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D174" t="s">
+        <v>458</v>
+      </c>
+      <c r="E174" t="s">
+        <v>459</v>
+      </c>
+      <c r="F174">
+        <v>20240930</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" t="s">
+        <v>7</v>
+      </c>
+      <c r="D175" t="s">
+        <v>391</v>
+      </c>
+      <c r="E175" t="s">
+        <v>460</v>
+      </c>
+      <c r="F175">
+        <v>20240911</v>
+      </c>
+    </row>
+    <row r="176" ht="17" spans="1:6">
+      <c r="A176" t="s">
+        <v>200</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D176" t="s">
+        <v>462</v>
+      </c>
+      <c r="E176" t="s">
+        <v>463</v>
+      </c>
+      <c r="F176">
+        <v>20240919</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" t="s">
+        <v>200</v>
+      </c>
+      <c r="D177" t="s">
+        <v>464</v>
+      </c>
+      <c r="E177" t="s">
+        <v>465</v>
+      </c>
+      <c r="F177">
+        <v>20240924</v>
+      </c>
+    </row>
+    <row r="178" ht="34" spans="1:6">
+      <c r="A178" t="s">
+        <v>200</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D178" t="s">
+        <v>229</v>
+      </c>
+      <c r="E178" t="s">
+        <v>161</v>
+      </c>
+      <c r="F178">
+        <v>20240924</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" t="s">
+        <v>176</v>
+      </c>
+      <c r="D179" t="s">
+        <v>181</v>
+      </c>
+      <c r="E179" t="s">
+        <v>349</v>
+      </c>
+      <c r="F179">
+        <v>20240924</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" t="s">
+        <v>7</v>
+      </c>
+      <c r="D180" t="s">
+        <v>449</v>
+      </c>
+      <c r="E180" t="s">
+        <v>354</v>
+      </c>
+      <c r="F180">
+        <v>20240918</v>
+      </c>
+    </row>
+    <row r="181" ht="34" spans="1:6">
+      <c r="A181" t="s">
+        <v>176</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D181" t="s">
+        <v>469</v>
+      </c>
+      <c r="E181" t="s">
+        <v>470</v>
+      </c>
+      <c r="F181">
+        <v>20240930</v>
+      </c>
+    </row>
+    <row r="182" ht="34" spans="1:6">
+      <c r="A182" t="s">
+        <v>176</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D182" t="s">
+        <v>472</v>
+      </c>
+      <c r="E182" t="s">
+        <v>168</v>
+      </c>
+      <c r="F182">
+        <v>20240927</v>
+      </c>
+    </row>
+    <row r="183" ht="34" spans="1:6">
+      <c r="A183" t="s">
+        <v>274</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D183" t="s">
+        <v>474</v>
+      </c>
+      <c r="E183" t="s">
+        <v>146</v>
+      </c>
+      <c r="F183" s="2">
+        <v>20241008</v>
+      </c>
+    </row>
+    <row r="184" ht="34" spans="1:6">
+      <c r="A184" t="s">
+        <v>69</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D184" t="s">
+        <v>476</v>
+      </c>
+      <c r="E184" t="s">
+        <v>477</v>
+      </c>
+      <c r="F184" s="2">
+        <v>20241010</v>
+      </c>
+    </row>
+    <row r="185" ht="34" spans="1:6">
+      <c r="A185" t="s">
+        <v>274</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D185" t="s">
+        <v>479</v>
+      </c>
+      <c r="E185" t="s">
+        <v>168</v>
+      </c>
+      <c r="F185" s="2">
+        <v>20241008</v>
+      </c>
+    </row>
+    <row r="186" ht="34" spans="1:6">
+      <c r="A186" t="s">
+        <v>200</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D186" t="s">
+        <v>481</v>
+      </c>
+      <c r="E186" t="s">
+        <v>408</v>
+      </c>
+      <c r="F186" s="2">
+        <v>20240927</v>
+      </c>
+    </row>
+    <row r="187" ht="34" spans="1:6">
+      <c r="A187" t="s">
+        <v>7</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D187" t="s">
+        <v>484</v>
+      </c>
+      <c r="E187" t="s">
+        <v>426</v>
+      </c>
+      <c r="F187" s="2">
+        <v>20241011</v>
+      </c>
+    </row>
+    <row r="188" ht="34" spans="1:6">
+      <c r="A188" t="s">
+        <v>7</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D188" t="s">
+        <v>485</v>
+      </c>
+      <c r="E188" t="s">
+        <v>433</v>
+      </c>
+      <c r="F188" s="2">
+        <v>20241011</v>
+      </c>
+    </row>
+    <row r="189" ht="34" spans="1:6">
+      <c r="A189" t="s">
+        <v>7</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D189" t="s">
+        <v>487</v>
+      </c>
+      <c r="E189" t="s">
+        <v>488</v>
+      </c>
+      <c r="F189" s="2">
+        <v>20241021</v>
+      </c>
+    </row>
+    <row r="190" ht="34" spans="1:6">
+      <c r="A190" t="s">
+        <v>7</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D190" t="s">
+        <v>490</v>
+      </c>
+      <c r="E190" t="s">
+        <v>491</v>
+      </c>
+      <c r="F190" s="2">
+        <v>20241010</v>
+      </c>
+    </row>
+    <row r="191" ht="34" spans="1:6">
+      <c r="A191" t="s">
+        <v>321</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D191" t="s">
+        <v>492</v>
+      </c>
+      <c r="E191" t="s">
+        <v>493</v>
+      </c>
+      <c r="F191" s="2">
+        <v>20241030</v>
+      </c>
+    </row>
+    <row r="192" ht="34" spans="1:6">
+      <c r="A192" t="s">
+        <v>274</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D192" t="s">
+        <v>495</v>
+      </c>
+      <c r="E192" t="s">
+        <v>426</v>
+      </c>
+      <c r="F192" s="2">
+        <v>20241031</v>
+      </c>
+    </row>
+    <row r="193" ht="34" spans="1:6">
+      <c r="A193" t="s">
+        <v>200</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D193" t="s">
+        <v>498</v>
+      </c>
+      <c r="E193" t="s">
+        <v>349</v>
+      </c>
+      <c r="F193" s="2">
+        <v>20241104</v>
+      </c>
+    </row>
+    <row r="194" ht="17" spans="1:6">
+      <c r="A194" t="s">
+        <v>7</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D194" t="s">
+        <v>500</v>
+      </c>
+      <c r="E194" t="s">
+        <v>501</v>
+      </c>
+      <c r="F194" s="2">
+        <v>20241104</v>
+      </c>
+    </row>
+    <row r="195" ht="34" spans="1:6">
+      <c r="A195" t="s">
+        <v>7</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D195" t="s">
+        <v>503</v>
+      </c>
+      <c r="E195" t="s">
+        <v>504</v>
+      </c>
+      <c r="F195" s="2">
+        <v>20241030</v>
+      </c>
+    </row>
+    <row r="196" ht="34" spans="1:6">
+      <c r="A196" t="s">
+        <v>321</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D196" t="s">
+        <v>507</v>
+      </c>
+      <c r="E196" t="s">
+        <v>508</v>
+      </c>
+      <c r="F196" s="2">
+        <v>20241106</v>
+      </c>
+    </row>
+    <row r="197" ht="17" spans="1:6">
+      <c r="A197" t="s">
+        <v>321</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D197" t="s">
+        <v>398</v>
+      </c>
+      <c r="E197" t="s">
+        <v>150</v>
+      </c>
+      <c r="F197" s="2">
+        <v>20241107</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F135">
+  <autoFilter ref="A1:G197">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
